--- a/datasource/B.xlsx
+++ b/datasource/B.xlsx
@@ -1199,7 +1199,7 @@
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1510,7 +1510,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="26">
-        <v>44593</v>
+        <v>44615</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>34</v>
